--- a/Week 2/FredVo_Week2Homework.xlsx
+++ b/Week 2/FredVo_Week2Homework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredv\coding\SavvyCoders\dap-curriculum\Section02\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredv\coding\SavvyCoders\Homework\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14AB07-2DDF-4E53-9B65-3DD4CED5F447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC583F56-318F-4899-AB25-0C35F51E1F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="174">
   <si>
     <t>Expenses</t>
   </si>
@@ -553,6 +553,15 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>Qtr1</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +570,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -650,7 +659,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -698,23 +707,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -722,12 +737,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="201">
+  <dxfs count="1336">
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -898,7 +913,7 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1066,40 +1081,181 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <sz val="16"/>
       </font>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
       </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1211,10 +1367,66 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1326,34 +1538,3859 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1392,211 +5429,174 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment relativeIndent="-1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" relativeIndent="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1625,7 +5625,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[YourName_Week2Homework.xlsx]Payments!Payments</c:name>
+    <c:name>[FredVo_Week2Homework.xlsx]Payments!Payments</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1634,16 +5634,38 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1"/>
+            </a:innerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1690,16 +5712,38 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1"/>
+            </a:innerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1746,16 +5790,38 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:pattFill prst="narHorz">
+            <a:fgClr>
+              <a:schemeClr val="accent1"/>
+            </a:fgClr>
+            <a:bgClr>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:bgClr>
+          </a:pattFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:innerShdw blurRad="114300">
+              <a:schemeClr val="accent1"/>
+            </a:innerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1821,34 +5887,64 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payments!$A$5:$A$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$B$5:$B$6</c:f>
+              <c:f>Payments!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>64894.25</c:v>
+                  <c:v>30270.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,34 +5970,64 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payments!$A$5:$A$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$C$5:$C$6</c:f>
+              <c:f>Payments!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,34 +6053,64 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Payments!$A$5:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2012</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Payments!$A$5:$A$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="2"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Qtr1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$D$5:$D$6</c:f>
+              <c:f>Payments!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,8 +6129,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="164"/>
+        <c:overlap val="-22"/>
         <c:axId val="1984283232"/>
         <c:axId val="636089024"/>
       </c:barChart>
@@ -1991,11 +6147,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2036,20 +6192,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2680,7 +6822,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$C$3</c15:sqref>
@@ -2771,7 +6913,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2792,7 +6934,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -2821,7 +6963,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$C$4:$C$8</c15:sqref>
@@ -2849,7 +6991,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-145B-422D-8AFB-DB86DFFDAC15}"/>
                   </c:ext>
@@ -2862,7 +7004,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$D$3</c15:sqref>
@@ -2953,7 +7095,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -2974,7 +7116,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -3003,7 +7145,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$D$4:$D$8</c15:sqref>
@@ -3031,7 +7173,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-145B-422D-8AFB-DB86DFFDAC15}"/>
                   </c:ext>
@@ -3044,7 +7186,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$E$3</c15:sqref>
@@ -3135,7 +7277,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3156,7 +7298,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -3185,7 +7327,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$E$4:$E$8</c15:sqref>
@@ -3213,7 +7355,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-145B-422D-8AFB-DB86DFFDAC15}"/>
                   </c:ext>
@@ -3226,7 +7368,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$F$3</c15:sqref>
@@ -3317,7 +7459,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -3338,7 +7480,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -3367,7 +7509,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$F$4:$F$8</c15:sqref>
@@ -3395,7 +7537,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-145B-422D-8AFB-DB86DFFDAC15}"/>
                   </c:ext>
@@ -4952,7 +9094,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4963,7 +9105,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -4976,11 +9118,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4993,7 +9135,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5009,7 +9151,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5053,32 +9195,70 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -5090,33 +9270,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5138,15 +9314,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5161,15 +9335,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5180,10 +9354,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5199,14 +9373,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5218,31 +9392,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5251,17 +9418,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5270,14 +9436,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5289,17 +9455,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5320,7 +9485,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5328,7 +9493,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5348,10 +9513,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5368,11 +9533,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5381,14 +9546,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5418,8 +9582,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5442,14 +9606,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6508,15 +10666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6584,16 +10742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>995361</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9118,8 +13276,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F75CE00F-9EB6-467F-9223-74D922A80B05}" name="Payments" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F75CE00F-9EB6-467F-9223-74D922A80B05}" name="Payments" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -9273,7 +13431,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
@@ -9285,7 +13443,7 @@
       <items count="5">
         <item h="1" sd="0" x="0"/>
         <item h="1" sd="0" x="1"/>
-        <item sd="0" x="2"/>
+        <item x="2"/>
         <item sd="0" x="3"/>
         <item t="default"/>
       </items>
@@ -9297,8 +13455,17 @@
     <field x="9"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="5">
     <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="2"/>
     </i>
     <i t="grand">
@@ -9323,13 +13490,13 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="0" numFmtId="168"/>
+    <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="49">
-    <format dxfId="0">
+    <format dxfId="1335">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="1334">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9338,37 +13505,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="1333">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="1332">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="1331">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="1330">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="1329">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="1328">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1327">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="1326">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="1325">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="1324">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="1323">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -9377,38 +13544,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="1322">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="1321">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="1320">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="1319">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="1318">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="1317">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="1316">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="1315">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="1314">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="1313">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -9417,38 +13584,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="1312">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="1311">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="1310">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="1309">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="1308">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="1307">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="1306">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="1305">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="1304">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="1303">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -9457,47 +13624,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="1302">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="1301">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="1300">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="1299">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="1298">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="1297">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="1296">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="1295">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="1294">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="1293">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="1292">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="1291">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="1290">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -9506,17 +13673,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="1289">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="1288">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="1287">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9571,18 +13738,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="188" dataDxfId="189" headerRowBorderDxfId="199" tableBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="1286" dataDxfId="1284" headerRowBorderDxfId="1285" tableBorderDxfId="1283">
   <autoFilter ref="A2:I210" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16974736-BC56-428A-9D9D-7F653A409998}" name="Document Date" dataDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{C5D105DA-6B24-44FD-8D4B-75E51472D139}" name="Supplier" dataDxfId="197"/>
-    <tableColumn id="3" xr3:uid="{C63A9883-3F1C-4D78-8AB3-35F5767F3047}" name="Reference" dataDxfId="196"/>
-    <tableColumn id="4" xr3:uid="{4BF951B5-D74A-47DD-B876-20514C6B63CB}" name="Description" dataDxfId="195"/>
-    <tableColumn id="5" xr3:uid="{720BC07F-1925-497C-94CD-C756DA45D0EF}" name="Tax Inclusive Amount" dataDxfId="194" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{7575EBFE-7769-4574-9E4A-A3B189B896F3}" name="Column1" dataDxfId="193"/>
-    <tableColumn id="7" xr3:uid="{733D37C1-9BC0-4C0D-A68A-340586777F26}" name="Bank Code" dataDxfId="192"/>
-    <tableColumn id="8" xr3:uid="{6E1CE97F-4CF2-4F20-A3BD-567660083FC7}" name="Account Code" dataDxfId="191"/>
-    <tableColumn id="9" xr3:uid="{37D9384B-EB39-4AA7-A94B-F956AB4467B0}" name="Payment Date" dataDxfId="190"/>
+    <tableColumn id="1" xr3:uid="{16974736-BC56-428A-9D9D-7F653A409998}" name="Document Date" dataDxfId="1282"/>
+    <tableColumn id="2" xr3:uid="{C5D105DA-6B24-44FD-8D4B-75E51472D139}" name="Supplier" dataDxfId="1281"/>
+    <tableColumn id="3" xr3:uid="{C63A9883-3F1C-4D78-8AB3-35F5767F3047}" name="Reference" dataDxfId="1280"/>
+    <tableColumn id="4" xr3:uid="{4BF951B5-D74A-47DD-B876-20514C6B63CB}" name="Description" dataDxfId="1279"/>
+    <tableColumn id="5" xr3:uid="{720BC07F-1925-497C-94CD-C756DA45D0EF}" name="Tax Inclusive Amount" dataDxfId="1278" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{7575EBFE-7769-4574-9E4A-A3B189B896F3}" name="Column1" dataDxfId="1277"/>
+    <tableColumn id="7" xr3:uid="{733D37C1-9BC0-4C0D-A68A-340586777F26}" name="Bank Code" dataDxfId="1276"/>
+    <tableColumn id="8" xr3:uid="{6E1CE97F-4CF2-4F20-A3BD-567660083FC7}" name="Account Code" dataDxfId="1275"/>
+    <tableColumn id="9" xr3:uid="{37D9384B-EB39-4AA7-A94B-F956AB4467B0}" name="Payment Date" dataDxfId="1274"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9885,79 +14052,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5612C30C-EEEB-4BBB-AAE9-1A2DEBAA7261}">
-  <dimension ref="A3:E6"/>
+  <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="25">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="25">
         <v>70</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="25">
         <v>64965.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="25">
+        <v>64894.25</v>
+      </c>
+      <c r="C6" s="25">
+        <v>70</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>64965.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="25">
+        <v>30270.25</v>
+      </c>
+      <c r="C7" s="25">
+        <v>35</v>
+      </c>
+      <c r="D7" s="25">
+        <v>-4</v>
+      </c>
+      <c r="E7" s="25">
+        <v>30301.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="25">
+        <v>34624</v>
+      </c>
+      <c r="C8" s="25">
+        <v>35</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5</v>
+      </c>
+      <c r="E8" s="25">
+        <v>34664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B9" s="25">
         <v>64894.25</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C9" s="25">
         <v>70</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D9" s="25">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E9" s="25">
         <v>64965.25</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9994,7 +14328,7 @@
       <c r="E1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -16309,7 +20643,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Week 2/FredVo_Week2Homework.xlsx
+++ b/Week 2/FredVo_Week2Homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredv\coding\SavvyCoders\Homework\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC583F56-318F-4899-AB25-0C35F51E1F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F46341-CFAC-4794-9282-F3B0909134E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="172">
   <si>
     <t>Expenses</t>
   </si>
@@ -556,12 +556,6 @@
   <si>
     <t>Qtr1</t>
   </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
 </sst>
 </file>
 
@@ -710,26 +704,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -737,3255 +731,39 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1336">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
+  <dxfs count="416">
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -5655,17 +2433,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5733,17 +2501,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5811,17 +2569,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5910,17 +2658,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Payments!$A$5:$A$9</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Qtr1</c:v>
@@ -5936,15 +2676,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$B$5:$B$9</c:f>
+              <c:f>Payments!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30270.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34624</c:v>
+                  <c:v>64894.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,17 +2730,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Payments!$A$5:$A$9</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Qtr1</c:v>
@@ -6019,15 +2748,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$C$5:$C$9</c:f>
+              <c:f>Payments!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6076,17 +2802,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Payments!$A$5:$A$9</c:f>
+              <c:f>Payments!$A$5:$A$7</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="2"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Jan</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Feb</c:v>
-                  </c:pt>
-                </c:lvl>
+                <c:ptCount val="1"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Qtr1</c:v>
@@ -6102,15 +2820,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Payments!$D$5:$D$9</c:f>
+              <c:f>Payments!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10665,16 +7380,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13277,7 +9992,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F75CE00F-9EB6-467F-9223-74D922A80B05}" name="Payments" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:E7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13431,7 +10146,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item sd="0" x="0"/>
-        <item x="1"/>
+        <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
@@ -13455,18 +10170,12 @@
     <field x="9"/>
     <field x="8"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="3">
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -13492,11 +10201,11 @@
   <dataFields count="1">
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="49">
-    <format dxfId="1335">
+  <formats count="60">
+    <format dxfId="415">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1334">
+    <format dxfId="414">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -13505,37 +10214,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1333">
+    <format dxfId="413">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1332">
+    <format dxfId="412">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1331">
+    <format dxfId="411">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1330">
+    <format dxfId="410">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1329">
+    <format dxfId="409">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1328">
+    <format dxfId="408">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1327">
+    <format dxfId="407">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1326">
+    <format dxfId="406">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1325">
+    <format dxfId="405">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1324">
+    <format dxfId="404">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1323">
+    <format dxfId="403">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -13544,38 +10253,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1322">
+    <format dxfId="402">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1321">
+    <format dxfId="401">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1320">
+    <format dxfId="400">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1319">
+    <format dxfId="399">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1318">
+    <format dxfId="398">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1317">
+    <format dxfId="397">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1316">
+    <format dxfId="396">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1315">
+    <format dxfId="395">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1314">
+    <format dxfId="394">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1313">
+    <format dxfId="393">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -13584,38 +10293,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1312">
+    <format dxfId="392">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1311">
+    <format dxfId="391">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1310">
+    <format dxfId="390">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1309">
+    <format dxfId="389">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1308">
+    <format dxfId="388">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1307">
+    <format dxfId="387">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1306">
+    <format dxfId="386">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1305">
+    <format dxfId="385">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1304">
+    <format dxfId="384">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1303">
+    <format dxfId="383">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -13624,47 +10333,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1302">
+    <format dxfId="382">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1301">
+    <format dxfId="381">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1300">
+    <format dxfId="380">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1299">
+    <format dxfId="379">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1298">
+    <format dxfId="378">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1297">
+    <format dxfId="377">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1296">
+    <format dxfId="376">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1295">
+    <format dxfId="375">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1294">
+    <format dxfId="374">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1293">
+    <format dxfId="373">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="1292">
+    <format dxfId="372">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1291">
+    <format dxfId="371">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="1290">
+    <format dxfId="370">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -13673,17 +10382,69 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1289">
+    <format dxfId="369">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1288">
+    <format dxfId="368">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1287">
+    <format dxfId="367">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -13725,7 +10486,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -13738,18 +10499,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="1286" dataDxfId="1284" headerRowBorderDxfId="1285" tableBorderDxfId="1283">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="366" dataDxfId="364" headerRowBorderDxfId="365" tableBorderDxfId="363">
   <autoFilter ref="A2:I210" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16974736-BC56-428A-9D9D-7F653A409998}" name="Document Date" dataDxfId="1282"/>
-    <tableColumn id="2" xr3:uid="{C5D105DA-6B24-44FD-8D4B-75E51472D139}" name="Supplier" dataDxfId="1281"/>
-    <tableColumn id="3" xr3:uid="{C63A9883-3F1C-4D78-8AB3-35F5767F3047}" name="Reference" dataDxfId="1280"/>
-    <tableColumn id="4" xr3:uid="{4BF951B5-D74A-47DD-B876-20514C6B63CB}" name="Description" dataDxfId="1279"/>
-    <tableColumn id="5" xr3:uid="{720BC07F-1925-497C-94CD-C756DA45D0EF}" name="Tax Inclusive Amount" dataDxfId="1278" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{7575EBFE-7769-4574-9E4A-A3B189B896F3}" name="Column1" dataDxfId="1277"/>
-    <tableColumn id="7" xr3:uid="{733D37C1-9BC0-4C0D-A68A-340586777F26}" name="Bank Code" dataDxfId="1276"/>
-    <tableColumn id="8" xr3:uid="{6E1CE97F-4CF2-4F20-A3BD-567660083FC7}" name="Account Code" dataDxfId="1275"/>
-    <tableColumn id="9" xr3:uid="{37D9384B-EB39-4AA7-A94B-F956AB4467B0}" name="Payment Date" dataDxfId="1274"/>
+    <tableColumn id="1" xr3:uid="{16974736-BC56-428A-9D9D-7F653A409998}" name="Document Date" dataDxfId="362"/>
+    <tableColumn id="2" xr3:uid="{C5D105DA-6B24-44FD-8D4B-75E51472D139}" name="Supplier" dataDxfId="361"/>
+    <tableColumn id="3" xr3:uid="{C63A9883-3F1C-4D78-8AB3-35F5767F3047}" name="Reference" dataDxfId="360"/>
+    <tableColumn id="4" xr3:uid="{4BF951B5-D74A-47DD-B876-20514C6B63CB}" name="Description" dataDxfId="359"/>
+    <tableColumn id="5" xr3:uid="{720BC07F-1925-497C-94CD-C756DA45D0EF}" name="Tax Inclusive Amount" dataDxfId="358" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{7575EBFE-7769-4574-9E4A-A3B189B896F3}" name="Column1" dataDxfId="357"/>
+    <tableColumn id="7" xr3:uid="{733D37C1-9BC0-4C0D-A68A-340586777F26}" name="Bank Code" dataDxfId="356"/>
+    <tableColumn id="8" xr3:uid="{6E1CE97F-4CF2-4F20-A3BD-567660083FC7}" name="Account Code" dataDxfId="355"/>
+    <tableColumn id="9" xr3:uid="{37D9384B-EB39-4AA7-A94B-F956AB4467B0}" name="Payment Date" dataDxfId="354"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14055,61 +10816,57 @@
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="16.7109375" style="28" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="27">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="27">
         <v>70</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="27">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <v>64965.25</v>
       </c>
     </row>
@@ -14117,181 +10874,161 @@
       <c r="A6" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="27">
         <v>64894.25</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="27">
         <v>70</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="27">
         <v>1</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="27">
         <v>64965.25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="25">
-        <v>30270.25</v>
-      </c>
-      <c r="C7" s="25">
-        <v>35</v>
-      </c>
-      <c r="D7" s="25">
-        <v>-4</v>
-      </c>
-      <c r="E7" s="25">
-        <v>30301.25</v>
+      <c r="A7" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="27">
+        <v>64894.25</v>
+      </c>
+      <c r="C7" s="27">
+        <v>70</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <v>64965.25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="25">
-        <v>34624</v>
-      </c>
-      <c r="C8" s="25">
-        <v>35</v>
-      </c>
-      <c r="D8" s="25">
-        <v>5</v>
-      </c>
-      <c r="E8" s="25">
-        <v>34664</v>
-      </c>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="25">
-        <v>64894.25</v>
-      </c>
-      <c r="C9" s="25">
-        <v>70</v>
-      </c>
-      <c r="D9" s="25">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25">
-        <v>64965.25</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20394,7 +17131,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20587,8 +17324,12 @@
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="14">
+        <f>MIN(D4:D14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>147</v>
       </c>
@@ -20596,8 +17337,12 @@
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="14">
+        <f>MAX(D4:D14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>148</v>
       </c>
@@ -20605,8 +17350,12 @@
         <f>AVERAGE(C4:C14)</f>
         <v>12.454545454545455</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="14">
+        <f>AVERAGE(D4:D14)</f>
+        <v>83.545454545454547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>149</v>
       </c>
@@ -20614,8 +17363,12 @@
         <f>_xlfn.MODE.SNGL(C4:C14)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
+        <f>_xlfn.MODE.SNGL(D4:D14)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>150</v>
       </c>
@@ -20623,8 +17376,12 @@
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="14">
+        <f>MEDIAN(D4:D14)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>151</v>
       </c>

--- a/Week 2/FredVo_Week2Homework.xlsx
+++ b/Week 2/FredVo_Week2Homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fredv\coding\SavvyCoders\Homework\Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F46341-CFAC-4794-9282-F3B0909134E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED2045E-2BEC-4A52-9BB1-B482382327DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="8" r:id="rId1"/>
@@ -648,10 +648,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -688,7 +689,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -707,1260 +707,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="416">
+  <dxfs count="82">
     <dxf>
-      <alignment horizontal="center" indent="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" indent="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" indent="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" indent="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" indent="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <sz val="16"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" relativeIndent="1"/>
-    </dxf>
-    <dxf>
-      <alignment relativeIndent="-1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2204,6 +1021,39 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3081,7 +1931,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Monthly Payment</c:v>
+                  <c:v> Monthly Payment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3308,7 +2158,7 @@
             <c:numRef>
               <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>806.66666666666663</c:v>
@@ -3365,7 +2215,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Balance</c:v>
+                        <c:v> Balance </c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3504,7 +2354,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>2000</c:v>
@@ -3537,7 +2387,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$C$3</c15:sqref>
@@ -3649,7 +2499,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -3678,7 +2528,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$C$4:$C$8</c15:sqref>
@@ -3719,7 +2569,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$D$3</c15:sqref>
@@ -3831,7 +2681,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -3860,7 +2710,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$D$4:$D$8</c15:sqref>
@@ -3901,7 +2751,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$E$3</c15:sqref>
@@ -3911,7 +2761,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Interest Paid</c:v>
+                        <c:v> Interest Paid </c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4013,7 +2863,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -4042,7 +2892,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$E$4:$E$8</c15:sqref>
@@ -4050,7 +2900,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>420</c:v>
@@ -4083,7 +2933,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$F$3</c15:sqref>
@@ -4093,7 +2943,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Total Loan Amount</c:v>
+                        <c:v> Total Loan Amount </c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4195,7 +3045,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
@@ -4224,7 +3074,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Credit Card Debt'!$F$4:$F$8</c15:sqref>
@@ -4232,7 +3082,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>2420</c:v>
@@ -4456,7 +3306,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4562,6 +3412,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Balance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and monthly payment</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4769,10 +3649,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Balance</c:v>
+                  <c:v> Balance </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Monthly Payment</c:v>
+                  <c:v> Monthly Payment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4790,10 +3670,10 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="General">
+                <c:pt idx="1" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>806.66666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -4937,10 +3817,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Balance</c:v>
+                  <c:v> Balance </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Monthly Payment</c:v>
+                  <c:v> Monthly Payment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4958,10 +3838,10 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="General">
+                <c:pt idx="1" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>187.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -5105,10 +3985,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Balance</c:v>
+                  <c:v> Balance </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Monthly Payment</c:v>
+                  <c:v> Monthly Payment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5126,10 +4006,10 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>975</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="General">
+                <c:pt idx="1" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>412.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -5273,10 +4153,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Balance</c:v>
+                  <c:v> Balance </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Monthly Payment</c:v>
+                  <c:v> Monthly Payment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5294,10 +4174,10 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="General">
+                <c:pt idx="1" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>575</c:v>
                 </c:pt>
               </c:numCache>
@@ -5441,10 +4321,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Balance</c:v>
+                  <c:v> Balance </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Monthly Payment</c:v>
+                  <c:v> Monthly Payment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5462,10 +4342,10 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>780</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="General">
+                <c:pt idx="1" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
                   <c:v>325</c:v>
                 </c:pt>
               </c:numCache>
@@ -5559,7 +4439,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10202,10 +9082,10 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="60">
-    <format dxfId="415">
+    <format dxfId="81">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="414">
+    <format dxfId="80">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10214,37 +9094,37 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="413">
+    <format dxfId="79">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="412">
+    <format dxfId="78">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="411">
+    <format dxfId="77">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="410">
+    <format dxfId="76">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="409">
+    <format dxfId="75">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="408">
+    <format dxfId="74">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="407">
+    <format dxfId="73">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="406">
+    <format dxfId="72">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="405">
+    <format dxfId="71">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="404">
+    <format dxfId="70">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="403">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10253,38 +9133,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="402">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="401">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="400">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="399">
+    <format dxfId="65">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="398">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="397">
+    <format dxfId="63">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="396">
+    <format dxfId="62">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="395">
+    <format dxfId="61">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="394">
+    <format dxfId="60">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="393">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10293,38 +9173,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="392">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="391">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="390">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="389">
+    <format dxfId="55">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="388">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="387">
+    <format dxfId="53">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="386">
+    <format dxfId="52">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="385">
+    <format dxfId="51">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="384">
+    <format dxfId="50">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="383">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10333,47 +9213,47 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="382">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="381">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="380">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="379">
+    <format dxfId="45">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="378">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="377">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="376">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="375">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="374">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="373">
+    <format dxfId="39">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="372">
+    <format dxfId="38">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="371">
+    <format dxfId="37">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="370">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10382,38 +9262,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="369">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="368">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="367">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="30">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="29">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="28">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="27">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -10422,10 +9302,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="10" count="1">
@@ -10437,14 +9317,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10499,18 +9379,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="366" dataDxfId="364" headerRowBorderDxfId="365" tableBorderDxfId="363">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A2:I210" xr:uid="{655646E7-883D-4EFD-851B-E87B263A800E}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16974736-BC56-428A-9D9D-7F653A409998}" name="Document Date" dataDxfId="362"/>
-    <tableColumn id="2" xr3:uid="{C5D105DA-6B24-44FD-8D4B-75E51472D139}" name="Supplier" dataDxfId="361"/>
-    <tableColumn id="3" xr3:uid="{C63A9883-3F1C-4D78-8AB3-35F5767F3047}" name="Reference" dataDxfId="360"/>
-    <tableColumn id="4" xr3:uid="{4BF951B5-D74A-47DD-B876-20514C6B63CB}" name="Description" dataDxfId="359"/>
-    <tableColumn id="5" xr3:uid="{720BC07F-1925-497C-94CD-C756DA45D0EF}" name="Tax Inclusive Amount" dataDxfId="358" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{7575EBFE-7769-4574-9E4A-A3B189B896F3}" name="Column1" dataDxfId="357"/>
-    <tableColumn id="7" xr3:uid="{733D37C1-9BC0-4C0D-A68A-340586777F26}" name="Bank Code" dataDxfId="356"/>
-    <tableColumn id="8" xr3:uid="{6E1CE97F-4CF2-4F20-A3BD-567660083FC7}" name="Account Code" dataDxfId="355"/>
-    <tableColumn id="9" xr3:uid="{37D9384B-EB39-4AA7-A94B-F956AB4467B0}" name="Payment Date" dataDxfId="354"/>
+    <tableColumn id="1" xr3:uid="{16974736-BC56-428A-9D9D-7F653A409998}" name="Document Date" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C5D105DA-6B24-44FD-8D4B-75E51472D139}" name="Supplier" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C63A9883-3F1C-4D78-8AB3-35F5767F3047}" name="Reference" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4BF951B5-D74A-47DD-B876-20514C6B63CB}" name="Description" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{720BC07F-1925-497C-94CD-C756DA45D0EF}" name="Tax Inclusive Amount" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{7575EBFE-7769-4574-9E4A-A3B189B896F3}" name="Column1" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{733D37C1-9BC0-4C0D-A68A-340586777F26}" name="Bank Code" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{6E1CE97F-4CF2-4F20-A3BD-567660083FC7}" name="Account Code" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{37D9384B-EB39-4AA7-A94B-F956AB4467B0}" name="Payment Date" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2D77BDE3-E54A-47BC-8172-0AF1BDCA03F7}" name="Table2" displayName="Table2" ref="A3:G8" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:G8" xr:uid="{2D77BDE3-E54A-47BC-8172-0AF1BDCA03F7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DA020F21-6D03-4B58-B704-4CBE67F80B38}" name="Credit Card" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{34C095EA-D53E-4557-AEDA-B3E7EAB2FB00}" name="Balance" dataDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{A8F75142-9FBF-4DEA-BC69-59C82EA79D2D}" name="Interest Rate" dataDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{005B33A8-2C2E-4602-B945-A5F328A006DB}" name="Months" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3975A0DB-61BD-4DE8-BEEC-5B67CB4CE312}" name="Interest Paid" dataDxfId="4" dataCellStyle="Currency">
+      <calculatedColumnFormula>IF(D4&gt;3,3*C4,C4*B4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E6BB4561-94CE-4582-807D-471268342D07}" name="Total Loan Amount" dataDxfId="3" dataCellStyle="Currency">
+      <calculatedColumnFormula>E4+B4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{74F0C994-49B8-45E3-9507-F3A0DA2A3A1E}" name="Monthly Payment" dataDxfId="2" dataCellStyle="Currency">
+      <calculatedColumnFormula>F4/3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10815,220 +9717,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5612C30C-EEEB-4BBB-AAE9-1A2DEBAA7261}">
   <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="16.7109375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="5" width="16.7109375" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>64894.25</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>70</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>1</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>64965.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>64894.25</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>70</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>1</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>64965.25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>64894.25</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>70</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>64965.25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11066,31 +9965,31 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -17399,173 +16298,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA2ED6-1BD9-462C-BA09-76B70C4E032E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="28" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="25" customWidth="1"/>
+    <col min="5" max="7" width="20.7109375" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="25" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="28">
         <v>2000</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="27">
         <v>0.21</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="28">
         <f>IF(D4&gt;3,3*C4,C4*B4)</f>
         <v>420</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="28">
         <f>E4+B4</f>
         <v>2420</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="28">
         <f>F4/3</f>
         <v>806.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="28">
         <v>450</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="27">
         <v>0.25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="28">
         <f t="shared" ref="E5:E8" si="0">IF(D5&gt;3,3*C5,C5*B5)</f>
         <v>112.5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="28">
         <f t="shared" ref="F5:F8" si="1">E5+B5</f>
         <v>562.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="28">
         <f t="shared" ref="G5:G8" si="2">F5/3</f>
         <v>187.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="28">
         <v>975</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="27">
         <v>0.27</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="25">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="28">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="28">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="28">
         <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="28">
         <v>1500</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="27">
         <v>0.15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="25">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="28">
         <f t="shared" si="1"/>
         <v>1725</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="28">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="28">
         <v>780</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="27">
         <v>0.25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="25">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="28">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="28">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="28">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
@@ -17573,5 +16471,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>